--- a/biology/Médecine/Max_Hamburger/Max_Hamburger.xlsx
+++ b/biology/Médecine/Max_Hamburger/Max_Hamburger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meijer "Max" Hamburger, né le 10 février 1920 à Maastricht et mort le 2 juillet 2012, est un psychiatre juif néerlandais, résistant durant la Seconde Guerre mondiale et survivant des camps de concentration nazis d'Auschwitz et de Buchenwald[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meijer "Max" Hamburger, né le 10 février 1920 à Maastricht et mort le 2 juillet 2012, est un psychiatre juif néerlandais, résistant durant la Seconde Guerre mondiale et survivant des camps de concentration nazis d'Auschwitz et de Buchenwald.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Amsterdam de Hartog Hamburger (1887-1924) un diamantaire néerlandais, joueur de baseball pour le OVVO d'Amsterdam de la Honkbal Hoofdklasse, frappé à la tête, le 9 octobre 1924, mort le lendemain, devenant le seul joueur européen à mourir de ce sport ; et de Julia Waterman, costumière[2]. Il fait ses études de médecine à l'université d'Amsterdam. Son frère meurt d'un cancer. Il est arrêté pour résistance, sa mère et lui sont déportés à Auschwitz, où sa mère meurt dans la chambre à gaz[3]. Le reste de sa famille meurt en 1943 à Sobibor.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Amsterdam de Hartog Hamburger (1887-1924) un diamantaire néerlandais, joueur de baseball pour le OVVO d'Amsterdam de la Honkbal Hoofdklasse, frappé à la tête, le 9 octobre 1924, mort le lendemain, devenant le seul joueur européen à mourir de ce sport ; et de Julia Waterman, costumière. Il fait ses études de médecine à l'université d'Amsterdam. Son frère meurt d'un cancer. Il est arrêté pour résistance, sa mère et lui sont déportés à Auschwitz, où sa mère meurt dans la chambre à gaz. Le reste de sa famille meurt en 1943 à Sobibor.
 Après plusieurs années de sanatorium, il devient psychiatre spécialisé dans le traitement du traumatisme de la guerre. Il a eu 8 enfants en trois mariages : quatre enfants de son premier mariage, deux de son deuxième et deux de son troisième. Il a commencé à témoigner de son expérience à un âge très avancé dans les écoles, églises et universités.
 </t>
         </is>
